--- a/yahoo.xlsx
+++ b/yahoo.xlsx
@@ -1,30 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nomad\VS_projects\Yahoo_Finance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757AC190-B060-4643-8860-5E26DA34D74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE837C-B417-46D2-9101-E0330D65993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12264" yWindow="1152" windowWidth="21888" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>msft</t>
   </si>
   <si>
+    <t>AAPL</t>
+  </si>
+  <si>
     <t>amzn</t>
   </si>
   <si>
@@ -40,12 +56,21 @@
     <t>Price</t>
   </si>
   <si>
+    <t>TrailingPE</t>
+  </si>
+  <si>
     <t>ForwardPE</t>
   </si>
   <si>
     <t>DilutedEPS</t>
   </si>
   <si>
+    <t>eqww</t>
+  </si>
+  <si>
+    <t>asdqwe</t>
+  </si>
+  <si>
     <t>Beta (5Y monthly)</t>
   </si>
   <si>
@@ -58,19 +83,37 @@
     <t>50 Day MA</t>
   </si>
   <si>
+    <t>XD</t>
+  </si>
+  <si>
     <t>200 Day MA</t>
   </si>
   <si>
+    <t>Dividend Rate</t>
+  </si>
+  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>Dividend Rate</t>
-  </si>
-  <si>
-    <t>TrailingPE</t>
-  </si>
-  <si>
-    <t>AAPL</t>
+    <t>qweqwe</t>
+  </si>
+  <si>
+    <t>XDDD</t>
+  </si>
+  <si>
+    <t>qeqweq</t>
+  </si>
+  <si>
+    <t>eqw</t>
+  </si>
+  <si>
+    <t>qweqwewq</t>
+  </si>
+  <si>
+    <t>eqweqw</t>
+  </si>
+  <si>
+    <t>^ this is a formula</t>
   </si>
 </sst>
 </file>
@@ -388,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,79 +442,125 @@
     <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <f>B4+C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo.xlsx
+++ b/yahoo.xlsx
@@ -1,137 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nomad\VS_projects\Yahoo_Finance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE837C-B417-46D2-9101-E0330D65993B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="48" windowWidth="23040" windowHeight="12204" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>msft</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>amzn</t>
-  </si>
-  <si>
-    <t>goog</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>intc</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>TrailingPE</t>
-  </si>
-  <si>
-    <t>ForwardPE</t>
-  </si>
-  <si>
-    <t>DilutedEPS</t>
-  </si>
-  <si>
-    <t>eqww</t>
-  </si>
-  <si>
-    <t>asdqwe</t>
-  </si>
-  <si>
-    <t>Beta (5Y monthly)</t>
-  </si>
-  <si>
-    <t>52 Week High</t>
-  </si>
-  <si>
-    <t>52 Week Low</t>
-  </si>
-  <si>
-    <t>50 Day MA</t>
-  </si>
-  <si>
-    <t>XD</t>
-  </si>
-  <si>
-    <t>200 Day MA</t>
-  </si>
-  <si>
-    <t>Dividend Rate</t>
-  </si>
-  <si>
-    <t>Dividend Yield</t>
-  </si>
-  <si>
-    <t>qweqwe</t>
-  </si>
-  <si>
-    <t>XDDD</t>
-  </si>
-  <si>
-    <t>qeqweq</t>
-  </si>
-  <si>
-    <t>eqw</t>
-  </si>
-  <si>
-    <t>qweqwewq</t>
-  </si>
-  <si>
-    <t>eqweqw</t>
-  </si>
-  <si>
-    <t>^ this is a formula</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,137 +385,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>amzn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>goog</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>meta</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>intc</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>btc-usd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>373.26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>196.94</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153.79</v>
+      </c>
+      <c r="E2" t="n">
+        <v>138.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>350.36</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TrailingPE</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>36.168606</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32.127243</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.518326</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.405355</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.895943</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ForwardPE</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>31.419193</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.021341</v>
+      </c>
+      <c r="D4" t="n">
+        <v>47.03058</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.713818</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.95238</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.816092</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DilutedEPS</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Beta (5Y monthly)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.197</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>52 Week High</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>384.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>199.62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155.11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>142.38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>353.6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>47.27</v>
+      </c>
+      <c r="H7" t="n">
+        <v>44705.516</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>52 Week Low</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>219.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>124.17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>81.43000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>85.56999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>112.46</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16408.475</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>50 Day MA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>356.6156</v>
+      </c>
+      <c r="C9" t="n">
+        <v>184.1556</v>
+      </c>
+      <c r="D9" t="n">
+        <v>139.4176</v>
+      </c>
+      <c r="E9" t="n">
+        <v>134.7994</v>
+      </c>
+      <c r="F9" t="n">
+        <v>323.0122</v>
+      </c>
+      <c r="G9" t="n">
+        <v>39.8132</v>
+      </c>
+      <c r="H9" t="n">
+        <v>38534.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>200 Day MA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>325.3158</v>
+      </c>
+      <c r="C10" t="n">
+        <v>177.7933</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.3461</v>
+      </c>
+      <c r="E10" t="n">
+        <v>123.88843</v>
+      </c>
+      <c r="F10" t="n">
+        <v>279.4636</v>
+      </c>
+      <c r="G10" t="n">
+        <v>34.4211</v>
+      </c>
+      <c r="H10" t="n">
+        <v>30852.393</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dividend Rate</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0109</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13"/>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
       <c r="E18">
         <f>B4+C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="F25" t="s">
-        <v>25</v>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>^ this is a formula</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>XDDD</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>qeqweq</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eqw</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>qweqwewq</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>eqweqw</t>
+        </is>
       </c>
     </row>
   </sheetData>
